--- a/Unsmoothing.xlsx
+++ b/Unsmoothing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc111\Dev\ftk-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40AD125-3098-4636-9BE3-09D4B5DA550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95921E38-7678-4626-81B6-93D3A67E406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{33B86A54-F699-4A69-991F-5C59CF7B3663}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{33B86A54-F699-4A69-991F-5C59CF7B3663}"/>
   </bookViews>
   <sheets>
     <sheet name="Unsmooth" sheetId="1" r:id="rId1"/>
+    <sheet name="Carino" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="P_Smoothed">OFFSET(Unsmooth!$B$14,0,0,1,COUNT(Unsmooth!$14:$14))</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Smoothed</t>
   </si>
@@ -92,14 +93,60 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Sector 1</t>
+  </si>
+  <si>
+    <t>Sector 2</t>
+  </si>
+  <si>
+    <t>Sector 3</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Carino Smoothing</t>
+  </si>
+  <si>
+    <t>YTD</t>
+  </si>
+  <si>
+    <t>Carino factors</t>
+  </si>
+  <si>
+    <t>Active Return</t>
+  </si>
+  <si>
+    <t>Active Return (Smoothed)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -154,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,12 +209,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -180,6 +247,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9C1D19-0528-4CDA-95D2-1EF744094B20}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2200,4 +2287,467 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD01E4C-6F4D-44AD-A044-A7961644B033}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="D6" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15" cm="1">
+        <f t="array" ref="B8:E8">_xlfn.BYCOL(B5:E7,_xleta.SUM)</f>
+        <v>-0.15999999999999998</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-3.9999999999999987E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="F8" s="18">
+        <f>FVSCHEDULE(1,_xlfn.ANCHORARRAY(B8))-1</f>
+        <v>0.15057151999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="str" cm="1">
+        <f t="array" ref="B11:F11">B4:F4</f>
+        <v>Q1</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="F11" s="22" t="str">
+        <v>YTD</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str" cm="1">
+        <f t="array" ref="A12:A14">A5:A7</f>
+        <v>Sector 1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="str">
+        <v>Sector 2</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="str">
+        <v>Sector 3</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" cm="1">
+        <f t="array" ref="B15:E15">_xlfn.BYCOL(B12:E14,_xleta.SUM)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="15">
+        <v>-0.2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="18">
+        <f>FVSCHEDULE(1,_xlfn.ANCHORARRAY(B15))-1</f>
+        <v>0.10844480000000023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="str" cm="1">
+        <f t="array" ref="B18:F18">B4:F4</f>
+        <v>Q1</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="F18" s="22" t="str">
+        <v>YTD</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="str" cm="1">
+        <f t="array" ref="A19:A21">A5:A7</f>
+        <v>Sector 1</v>
+      </c>
+      <c r="B19" s="12" cm="1">
+        <f t="array" ref="B19:E21">B5:E7-B12:E14</f>
+        <v>-0.06</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="str">
+        <v>Sector 2</v>
+      </c>
+      <c r="B20" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="str">
+        <v>Sector 3</v>
+      </c>
+      <c r="B21" s="12">
+        <v>-0.26</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" cm="1">
+        <f t="array" ref="B22:E22">_xlfn.BYCOL(B19:E21,_xleta.SUM)</f>
+        <v>-0.34</v>
+      </c>
+      <c r="C22" s="15">
+        <v>-6.9999999999999979E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="F22" s="23">
+        <f>F8-F15</f>
+        <v>4.2126719999999729E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" cm="1">
+        <f t="array" ref="B25:F25">IF(B8:F8=B15:F15,1,(LN(1+B8:F8)-LN(1+B15:F15))/(B8:F8-B15:F15))</f>
+        <v>0.99961125183044408</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1.0054399537399945</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1.0003667923221764</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.86958713559345158</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.88544375223740135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="str" cm="1">
+        <f t="array" ref="B28:F28">B4:F4</f>
+        <v>Q1</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="E28" s="20" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="F28" s="22" t="str">
+        <v>YTD</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="str" cm="1">
+        <f t="array" ref="A29:A31">A5:A7</f>
+        <v>Sector 1</v>
+      </c>
+      <c r="B29" s="17" cm="1">
+        <f t="array" ref="B29:E31">_xlfn.ANCHORARRAY(B19)*B25:E25/F25</f>
+        <v>-6.7736290372226782E-2</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1.1355209760070909E-2</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.11297914630877225</v>
+      </c>
+      <c r="E29" s="17">
+        <v>-3.9283675937454764E-2</v>
+      </c>
+      <c r="F29" s="17" cm="1">
+        <f t="array" ref="F29:F31">_xlfn.BYROW(B29:E31,_xleta.SUM)</f>
+        <v>1.7314389759161608E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="str">
+        <v>Sector 2</v>
+      </c>
+      <c r="B30" s="17">
+        <v>-2.2578763457408928E-2</v>
+      </c>
+      <c r="C30" s="17">
+        <v>-0.13626251712085088</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2.2595829261754446E-2</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <v>-0.13624545131650537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="str">
+        <v>Sector 3</v>
+      </c>
+      <c r="B31" s="17">
+        <v>-0.29352392494631607</v>
+      </c>
+      <c r="C31" s="17">
+        <v>4.5420839040283628E-2</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.35023535355719393</v>
+      </c>
+      <c r="E31" s="17">
+        <v>5.8925513906182149E-2</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.16105778155734363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="18" cm="1">
+        <f t="array" ref="B32:E32">_xlfn.BYCOL(B29:E31,_xleta.SUM)</f>
+        <v>-0.3838389787759518</v>
+      </c>
+      <c r="C32" s="18">
+        <v>-7.9486468320496342E-2</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.4858103291277206</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1.9641837968727385E-2</v>
+      </c>
+      <c r="F32" s="23">
+        <f>SUM(_xlfn.ANCHORARRAY(B32))</f>
+        <v>4.2126719999999854E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>